--- a/WorkBot/main/backend/ordering/OrderFiles/Equal Exchange/Equal Exchange_Easthill_20250314.xlsx
+++ b/WorkBot/main/backend/ordering/OrderFiles/Equal Exchange/Equal Exchange_Easthill_20250314.xlsx
@@ -488,7 +488,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -498,7 +498,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>77.50</t>
+          <t>232.50</t>
         </is>
       </c>
     </row>
